--- a/Leetcode DSA sheet by Fraz .xlsx
+++ b/Leetcode DSA sheet by Fraz .xlsx
@@ -1,35 +1,53 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Codes\CPP\frazCheet\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{752746A3-1F22-45FE-8AC1-8E1F45B1F319}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2475" yWindow="2715" windowWidth="28800" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="358">
   <si>
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">DSA Sheet by FRAZ ( </t>
     </r>
     <r>
       <rPr>
         <b/>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://www.youtube.com/c/leadcoding</t>
     </r>
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> )</t>
     </r>
@@ -38,34 +56,48 @@
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">HOW TO FOLLOW THIS SHEET </t>
     </r>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://youtu.be/NXQi_g1pVqI</t>
     </r>
     <r>
-      <rPr/>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t xml:space="preserve"> </t>
     </r>
   </si>
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
+        <family val="2"/>
       </rPr>
       <t>Solutions to Weekly and biweekly leetcode contest available on channel</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -523,13 +555,20 @@
   <si>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://leetcode.com/problems/surrounded-regions/</t>
     </r>
     <r>
-      <rPr/>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t>/</t>
     </r>
   </si>
@@ -611,15 +650,21 @@
   <si>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://leetcode.com/problems/binary-tree-inorder-traversal/</t>
     </r>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF000000"/>
-        <u/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">   (USING STACK TOO)</t>
     </r>
@@ -879,24 +924,38 @@
   <si>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://www.youtube.com/watch?v=B9bSSOnc0CQ</t>
     </r>
     <r>
-      <rPr/>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t>,</t>
     </r>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://www.youtube.com/watch?v=oUbZurIKnsY</t>
     </r>
     <r>
-      <rPr/>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t xml:space="preserve"> ,</t>
     </r>
   </si>
@@ -1169,62 +1228,123 @@
   </si>
   <si>
     <t>https://leetcode.com/articles/a-recursive-approach-to-segment-trees-range-sum-queries-lazy-propagation/</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Explanation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF1155CC"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF1155CC"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1232,70 +1352,131 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="19">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1485,1450 +1666,1527 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="B1:D429"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="114.29"/>
-    <col customWidth="1" min="3" max="3" width="62.43"/>
+    <col min="2" max="2" width="114.28515625" customWidth="1"/>
+    <col min="3" max="3" width="62.42578125" customWidth="1"/>
+    <col min="4" max="4" width="28.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6">
+      <c r="C5" s="14" t="s">
+        <v>355</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B6" s="5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7">
+      <c r="C6" s="15"/>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B7" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8">
+      <c r="C7" s="16" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B8" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9">
+      <c r="C8" s="16" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B9" s="6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10">
+      <c r="C9" s="16" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B10" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11">
+      <c r="C10" s="15"/>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B11" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12">
+      <c r="C11" s="15"/>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B12" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13">
+      <c r="C12" s="15"/>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B13" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14">
+      <c r="C13" s="15"/>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B14" s="7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15">
+      <c r="C14" s="15"/>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B15" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="16">
+      <c r="C15" s="15"/>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B16" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17">
+      <c r="C16" s="15"/>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B17" s="7" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="18">
+      <c r="C17" s="15"/>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B18" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="20">
+      <c r="C18" s="15"/>
+    </row>
+    <row r="19" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C19" s="15"/>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B20" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="21">
+      <c r="C20" s="15"/>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B21" s="6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="22">
+      <c r="C21" s="15"/>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B22" s="7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="23">
+      <c r="C22" s="15"/>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B23" s="7" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="24">
+      <c r="C23" s="15"/>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B24" s="7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="25">
+      <c r="C24" s="15"/>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B25" s="7" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="26">
+      <c r="C25" s="15"/>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B26" s="7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="27">
+      <c r="C26" s="15"/>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B27" s="7" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="28">
+      <c r="C27" s="15"/>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B28" s="7" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="29">
+      <c r="C28" s="15"/>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B29" s="7" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="30">
+      <c r="C29" s="15"/>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B30" s="7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="31">
+      <c r="C30" s="15"/>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B31" s="7" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="32">
+      <c r="C31" s="15"/>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B32" s="7" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="33">
+      <c r="C32" s="15"/>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B33" s="7" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="34">
+      <c r="C33" s="15"/>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B34" s="7" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="35">
+      <c r="C34" s="15"/>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B35" s="7" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="36">
+      <c r="C35" s="15"/>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B36" s="7" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="37">
+      <c r="C36" s="15"/>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B37" s="6" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="38">
+      <c r="C37" s="15"/>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B38" s="6" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="39">
+      <c r="C38" s="15"/>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B39" s="6" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="40">
+      <c r="C39" s="15"/>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B40" s="6" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="41">
+      <c r="C40" s="15"/>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B41" s="7" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="42">
+      <c r="C41" s="15"/>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B42" s="7" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="43">
+      <c r="C42" s="15"/>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B43" s="7" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="44">
+      <c r="C43" s="15"/>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B44" s="7" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="45">
+      <c r="C44" s="15"/>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B45" s="7" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="46">
+      <c r="C45" s="15"/>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B46" s="7" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="48">
+      <c r="C46" s="15"/>
+    </row>
+    <row r="47" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C47" s="15"/>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B48" s="5" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="49">
+      <c r="C48" s="15"/>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B49" s="7" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="50">
+      <c r="C49" s="15"/>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B50" s="7" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="51">
+      <c r="C50" s="15"/>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B51" s="7" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="52">
+      <c r="C51" s="15"/>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B52" s="7" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="53">
+      <c r="C52" s="15"/>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B53" s="7" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="55">
+      <c r="C53" s="15"/>
+    </row>
+    <row r="54" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C54" s="15"/>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B55" s="4" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="56">
+      <c r="C55" s="15"/>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B56" s="5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="57">
+      <c r="C56" s="15"/>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B57" s="6" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="58">
+      <c r="C57" s="15"/>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B58" s="7" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="59">
+      <c r="C58" s="15"/>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B59" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C59" s="6" t="s">
+      <c r="C59" s="17" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B60" s="6" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B62" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B63" s="7" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B64" s="7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B65" s="7" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B66" s="7" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B67" s="7" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B68" s="7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B69" s="7" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B70" s="7" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B71" s="7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B72" s="7" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B73" s="7" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B74" s="7" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B75" s="7" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B76" s="7" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B77" s="7" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B79" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B80" s="7" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B81" s="7" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B82" s="7" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B83" s="7" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B84" s="7" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B85" s="7" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B86" s="7" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B87" s="7" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B88" s="7" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B89" s="7" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B90" s="7" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B91" s="7" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B92" s="7" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B93" s="7" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B94" s="7" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B96" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B97" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B98" s="7" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B99" s="7" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B100" s="7" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B101" s="7" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B102" s="7" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B104" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B105" s="7" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B106" s="7" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B107" s="7" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B108" s="7" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B109" s="7" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B110" s="7" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B111" s="7" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B112" s="6" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B113" s="7" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B114" s="7" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B115" s="7" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B117" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B118" s="6" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B119" s="6" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B120" s="7" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B121" s="7" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B122" s="7" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B123" s="7" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B124" s="7" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B126" s="4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B127" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B128" s="6" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B129" s="7" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B130" s="6" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B131" s="6" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B132" s="6" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="133">
+    <row r="133" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B133" s="6" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B134" s="6" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B135" s="6" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B136" s="6" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B138" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="139">
+    <row r="139" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B139" s="6" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B140" s="6" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="141">
+    <row r="141" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B141" s="6" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="142">
+    <row r="142" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B142" s="6" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="143">
+    <row r="143" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B143" s="6" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="144">
+    <row r="144" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B144" s="6" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="145">
+    <row r="145" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B145" s="6" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="147">
+    <row r="147" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B147" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="148">
+    <row r="148" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B148" s="7" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="149">
+    <row r="149" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B149" s="7" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="150">
+    <row r="150" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B150" s="7" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="151">
+    <row r="151" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B151" s="7" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="153">
+    <row r="153" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B153" s="4" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="154">
+    <row r="154" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B154" s="5" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="155">
+    <row r="155" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B155" s="8" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="157">
+    <row r="157" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B157" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="158">
+    <row r="158" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B158" s="6" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="159">
+    <row r="159" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B159" s="6" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="160">
+    <row r="160" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B160" s="6" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="161">
+    <row r="161" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B161" s="6" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="162">
+    <row r="162" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B162" s="6" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="163">
+    <row r="163" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B163" s="6" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="164">
+    <row r="164" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B164" s="6" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="165">
+    <row r="165" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B165" s="7" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="167">
+    <row r="167" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B167" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="168">
+    <row r="168" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B168" s="6" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="169">
+    <row r="169" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B169" s="7" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="170">
+    <row r="170" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B170" s="6" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="172">
+    <row r="172" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B172" s="4" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="173">
+    <row r="173" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B173" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="174">
+    <row r="174" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B174" s="6" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="175">
+    <row r="175" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B175" s="6" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="176">
+    <row r="176" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B176" s="6" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="177">
+    <row r="177" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B177" s="6" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="178">
+    <row r="178" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B178" s="6" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="179">
+    <row r="179" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B179" s="6" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="180">
+    <row r="180" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B180" s="6" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="181">
+    <row r="181" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B181" s="9" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="182">
+    <row r="182" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B182" s="6" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="184">
+    <row r="184" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B184" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="185">
+    <row r="185" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B185" s="6" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="186">
+    <row r="186" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B186" s="6" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="187">
+    <row r="187" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B187" s="6" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="188">
+    <row r="188" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B188" s="6" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="189">
+    <row r="189" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B189" s="6" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="190">
+    <row r="190" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B190" s="6" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="191">
+    <row r="191" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B191" s="6" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="192">
+    <row r="192" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B192" s="6" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="194">
+    <row r="194" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B194" s="4" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="195">
+    <row r="195" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B195" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="196">
+    <row r="196" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B196" s="7" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="197">
+    <row r="197" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B197" s="7" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="198">
+    <row r="198" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B198" s="6" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="199">
+    <row r="199" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B199" s="7" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="200">
+    <row r="200" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B200" s="6" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="201">
+    <row r="201" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B201" s="6" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="202">
+    <row r="202" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B202" s="7" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="203">
+    <row r="203" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B203" s="6" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="204">
+    <row r="204" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B204" s="7" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="205">
+    <row r="205" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B205" s="6" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="206">
+    <row r="206" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B206" s="7" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="207">
+    <row r="207" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B207" s="7" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="208">
+    <row r="208" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B208" s="6" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="209">
+    <row r="209" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B209" s="7" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="210">
+    <row r="210" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B210" s="6" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="211">
+    <row r="211" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B211" s="6" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="213">
+    <row r="213" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B213" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="214">
+    <row r="214" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B214" s="6" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="215">
+    <row r="215" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B215" s="7" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="216">
+    <row r="216" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B216" s="7" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="217">
+    <row r="217" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B217" s="7" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="218">
+    <row r="218" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B218" s="7" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="219">
+    <row r="219" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B219" s="7" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="220">
+    <row r="220" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B220" s="7" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="221">
+    <row r="221" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B221" s="7" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="222">
+    <row r="222" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B222" s="7" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="223">
+    <row r="223" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B223" s="7" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="224">
+    <row r="224" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B224" s="7" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="225">
+    <row r="225" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B225" s="7" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="226">
+    <row r="226" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B226" s="7" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="227">
+    <row r="227" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B227" s="7" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="228">
+    <row r="228" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B228" s="7" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="229">
+    <row r="229" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B229" s="7" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="230">
+    <row r="230" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B230" s="7" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="231">
+    <row r="231" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B231" s="7" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="233">
+    <row r="233" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B233" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="234">
+    <row r="234" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B234" s="7" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="235">
+    <row r="235" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B235" s="7" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="236">
+    <row r="236" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B236" s="6" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="237">
+    <row r="237" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B237" s="7" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="238">
+    <row r="238" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B238" s="7" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="239">
+    <row r="239" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B239" s="7" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="240">
+    <row r="240" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B240" s="7" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="242">
+    <row r="242" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B242" s="4" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="243">
+    <row r="243" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B243" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="244">
+    <row r="244" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B244" s="7" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="245">
+    <row r="245" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B245" s="7" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="246">
+    <row r="246" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B246" s="10"/>
     </row>
-    <row r="247">
+    <row r="247" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B247" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="248">
+    <row r="248" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B248" s="7" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="249">
+    <row r="249" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B249" s="7" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="251">
+    <row r="251" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B251" s="4" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="252">
+    <row r="252" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B252" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="253">
+    <row r="253" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B253" s="6" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="254">
+    <row r="254" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B254" s="7" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="255">
+    <row r="255" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B255" s="7" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="256">
+    <row r="256" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B256" s="7" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="258">
+    <row r="258" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B258" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="259">
+    <row r="259" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B259" s="7" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="260">
+    <row r="260" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B260" s="7" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="261">
+    <row r="261" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B261" s="7" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="262">
+    <row r="262" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B262" s="7" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="263">
+    <row r="263" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B263" s="7" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="264">
+    <row r="264" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B264" s="7" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="265">
+    <row r="265" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B265" s="7" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="266">
+    <row r="266" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B266" s="7" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="267">
+    <row r="267" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B267" s="7" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="269">
+    <row r="269" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B269" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="270">
+    <row r="270" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B270" s="7" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="271">
+    <row r="271" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B271" s="7" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="272">
+    <row r="272" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B272" s="7" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="273">
+    <row r="273" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B273" s="7" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="274">
+    <row r="274" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B274" s="7" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="276">
+    <row r="276" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B276" s="4" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="277">
+    <row r="277" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B277" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="278">
+    <row r="278" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B278" s="7" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="279">
+    <row r="279" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B279" s="7" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="280">
+    <row r="280" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B280" s="7" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="281">
+    <row r="281" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B281" s="7" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="282">
+    <row r="282" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B282" s="6" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="284">
+    <row r="284" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B284" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="285">
+    <row r="285" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B285" s="7" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="286">
+    <row r="286" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B286" s="7" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="287">
+    <row r="287" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B287" s="7" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="288">
+    <row r="288" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B288" s="7" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="290">
+    <row r="290" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B290" s="4" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="291">
+    <row r="291" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B291" s="5" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="292">
+    <row r="292" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B292" s="7" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="293">
+    <row r="293" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B293" s="7" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="294">
+    <row r="294" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B294" s="7" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="295">
+    <row r="295" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B295" s="7" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="296">
+    <row r="296" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B296" s="7" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="298">
+    <row r="298" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B298" s="4" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="299">
+    <row r="299" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B299" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="300">
+    <row r="300" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B300" s="7" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="301">
+    <row r="301" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B301" s="7" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="302">
+    <row r="302" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B302" s="7" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="303">
+    <row r="303" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B303" s="7" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="304">
+    <row r="304" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B304" s="7" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="305">
+    <row r="305" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B305" s="7" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="307">
+    <row r="307" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B307" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="308">
+    <row r="308" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B308" s="6" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="309">
+    <row r="309" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B309" s="7" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="310">
+    <row r="310" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B310" s="7" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="311">
+    <row r="311" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B311" s="7" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="313">
+    <row r="313" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B313" s="4" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="314">
+    <row r="314" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B314" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="315">
+    <row r="315" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B315" s="7" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="316">
+    <row r="316" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B316" s="7" t="s">
         <v>259</v>
       </c>
@@ -2936,17 +3194,17 @@
         <v>260</v>
       </c>
     </row>
-    <row r="317">
+    <row r="317" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B317" s="7" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="318">
+    <row r="318" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B318" s="6" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="319">
+    <row r="319" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B319" s="8" t="s">
         <v>263</v>
       </c>
@@ -2954,42 +3212,42 @@
         <v>264</v>
       </c>
     </row>
-    <row r="320">
+    <row r="320" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B320" s="6" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="322">
+    <row r="322" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B322" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="323">
+    <row r="323" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B323" s="6" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="324">
+    <row r="324" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B324" s="7" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="325">
+    <row r="325" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B325" s="7" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="326">
+    <row r="326" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B326" s="7" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="327">
+    <row r="327" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B327" s="6" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="328">
+    <row r="328" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B328" s="7" t="s">
         <v>271</v>
       </c>
@@ -2997,790 +3255,810 @@
         <v>272</v>
       </c>
     </row>
-    <row r="329">
+    <row r="329" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B329" s="6" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="331">
+    <row r="331" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B331" s="4" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="332">
+    <row r="332" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B332" s="5" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="333">
+    <row r="333" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B333" s="6" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="334">
+    <row r="334" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B334" s="7" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="335">
+    <row r="335" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B335" s="7" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="336">
+    <row r="336" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B336" s="7" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="337">
+    <row r="337" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B337" s="7" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="338">
+    <row r="338" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B338" s="6" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="339">
+    <row r="339" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B339" s="7" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="341">
+    <row r="341" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B341" s="4" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="342">
+    <row r="342" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B342" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="343">
+    <row r="343" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B343" s="6" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="344">
+    <row r="344" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B344" s="7" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="345">
+    <row r="345" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B345" s="11"/>
     </row>
-    <row r="346">
+    <row r="346" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B346" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="347">
+    <row r="347" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B347" s="7" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="348">
+    <row r="348" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B348" s="7" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="349">
+    <row r="349" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B349" s="7" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="350">
+    <row r="350" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B350" s="7" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="351">
+    <row r="351" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B351" s="7" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="352">
+    <row r="352" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B352" s="7" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="353">
+    <row r="353" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B353" s="7" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="354">
+    <row r="354" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B354" s="7" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="355">
+    <row r="355" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B355" s="7" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="356">
+    <row r="356" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B356" s="7" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="357">
+    <row r="357" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B357" s="7" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="358">
+    <row r="358" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B358" s="6" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="359">
+    <row r="359" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B359" s="7" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="360">
+    <row r="360" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B360" s="7" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="362">
+    <row r="362" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B362" s="4" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="363">
+    <row r="363" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B363" s="7" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="365">
+    <row r="365" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B365" s="4" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="366">
+    <row r="366" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B366" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="367">
+    <row r="367" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B367" s="7" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="368">
+    <row r="368" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B368" s="7" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="369">
+    <row r="369" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B369" s="7" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="370">
+    <row r="370" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B370" s="7" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="371">
+    <row r="371" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B371" s="7" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="372">
+    <row r="372" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B372" s="7" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="373">
+    <row r="373" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B373" s="7" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="374">
+    <row r="374" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B374" s="7" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="375">
+    <row r="375" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B375" s="7" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="376">
+    <row r="376" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B376" s="7" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="378">
+    <row r="378" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B378" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="379">
+    <row r="379" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B379" s="7" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="380">
+    <row r="380" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B380" s="7" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="381">
+    <row r="381" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B381" s="7" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="382">
+    <row r="382" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B382" s="7" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="383">
+    <row r="383" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B383" s="6" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="384">
+    <row r="384" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B384" s="6" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="385">
+    <row r="385" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B385" s="7" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="386">
+    <row r="386" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B386" s="6" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="387">
+    <row r="387" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B387" s="7" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="388">
+    <row r="388" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B388" s="7" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="389">
+    <row r="389" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B389" s="7" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="390">
+    <row r="390" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B390" s="7" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="391">
+    <row r="391" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B391" s="7" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="393">
+    <row r="393" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B393" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="394">
+    <row r="394" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B394" s="6" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="395">
+    <row r="395" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B395" s="7" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="397">
+    <row r="397" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B397" s="4" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="398">
+    <row r="398" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B398" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="399">
+    <row r="399" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B399" s="7" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="400">
+    <row r="400" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B400" s="7" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="401">
+    <row r="401" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B401" s="7" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="402">
+    <row r="402" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B402" s="7" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="403">
+    <row r="403" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B403" s="7" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="404">
+    <row r="404" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B404" s="7" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="405">
+    <row r="405" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B405" s="7" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="406">
+    <row r="406" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B406" s="7" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="408">
+    <row r="408" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B408" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="409">
+    <row r="409" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B409" s="7" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="410">
+    <row r="410" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B410" s="7" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="411">
+    <row r="411" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B411" s="7" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="412">
+    <row r="412" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B412" s="7" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="413">
+    <row r="413" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B413" s="6" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="414">
+    <row r="414" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B414" s="7" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="415">
+    <row r="415" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B415" s="7" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="416">
+    <row r="416" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B416" s="7" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="417">
+    <row r="417" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B417" s="7" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="419">
+    <row r="419" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B419" s="4" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="420">
+    <row r="420" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B420" s="5" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="421">
+    <row r="421" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B421" s="7" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="422">
+    <row r="422" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B422" s="7" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="423">
+    <row r="423" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B423" s="7" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="424">
+    <row r="424" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B424" s="13" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="425">
+    <row r="425" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B425" s="5"/>
     </row>
-    <row r="426">
+    <row r="426" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B426" s="4" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="427">
+    <row r="427" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B427" s="6" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="428">
+    <row r="428" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B428" s="4" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="429">
+    <row r="429" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B429" s="6" t="s">
         <v>354</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="C7">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+      <formula>"Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5:C59">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>"No"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="B1"/>
-    <hyperlink r:id="rId2" ref="B2"/>
-    <hyperlink r:id="rId3" ref="B7"/>
-    <hyperlink r:id="rId4" ref="B8"/>
-    <hyperlink r:id="rId5" ref="B9"/>
-    <hyperlink r:id="rId6" ref="B10"/>
-    <hyperlink r:id="rId7" ref="B11"/>
-    <hyperlink r:id="rId8" ref="B12"/>
-    <hyperlink r:id="rId9" ref="B13"/>
-    <hyperlink r:id="rId10" ref="B14"/>
-    <hyperlink r:id="rId11" ref="B15"/>
-    <hyperlink r:id="rId12" ref="B16"/>
-    <hyperlink r:id="rId13" ref="B17"/>
-    <hyperlink r:id="rId14" ref="B18"/>
-    <hyperlink r:id="rId15" ref="B21"/>
-    <hyperlink r:id="rId16" ref="B22"/>
-    <hyperlink r:id="rId17" ref="B23"/>
-    <hyperlink r:id="rId18" ref="B24"/>
-    <hyperlink r:id="rId19" ref="B25"/>
-    <hyperlink r:id="rId20" ref="B26"/>
-    <hyperlink r:id="rId21" ref="B27"/>
-    <hyperlink r:id="rId22" ref="B28"/>
-    <hyperlink r:id="rId23" ref="B29"/>
-    <hyperlink r:id="rId24" ref="B30"/>
-    <hyperlink r:id="rId25" ref="B31"/>
-    <hyperlink r:id="rId26" ref="B32"/>
-    <hyperlink r:id="rId27" ref="B33"/>
-    <hyperlink r:id="rId28" ref="B34"/>
-    <hyperlink r:id="rId29" ref="B35"/>
-    <hyperlink r:id="rId30" ref="B36"/>
-    <hyperlink r:id="rId31" ref="B37"/>
-    <hyperlink r:id="rId32" ref="B38"/>
-    <hyperlink r:id="rId33" ref="B39"/>
-    <hyperlink r:id="rId34" ref="B40"/>
-    <hyperlink r:id="rId35" ref="B41"/>
-    <hyperlink r:id="rId36" ref="B42"/>
-    <hyperlink r:id="rId37" ref="B43"/>
-    <hyperlink r:id="rId38" ref="B44"/>
-    <hyperlink r:id="rId39" ref="B45"/>
-    <hyperlink r:id="rId40" ref="B46"/>
-    <hyperlink r:id="rId41" ref="B49"/>
-    <hyperlink r:id="rId42" ref="B50"/>
-    <hyperlink r:id="rId43" ref="B51"/>
-    <hyperlink r:id="rId44" ref="B52"/>
-    <hyperlink r:id="rId45" ref="B53"/>
-    <hyperlink r:id="rId46" ref="B57"/>
-    <hyperlink r:id="rId47" ref="B58"/>
-    <hyperlink r:id="rId48" ref="B59"/>
-    <hyperlink r:id="rId49" ref="C59"/>
-    <hyperlink r:id="rId50" ref="B60"/>
-    <hyperlink r:id="rId51" ref="B63"/>
-    <hyperlink r:id="rId52" ref="B64"/>
-    <hyperlink r:id="rId53" ref="B65"/>
-    <hyperlink r:id="rId54" ref="B66"/>
-    <hyperlink r:id="rId55" ref="B67"/>
-    <hyperlink r:id="rId56" ref="B68"/>
-    <hyperlink r:id="rId57" ref="B69"/>
-    <hyperlink r:id="rId58" ref="B70"/>
-    <hyperlink r:id="rId59" ref="B71"/>
-    <hyperlink r:id="rId60" ref="B72"/>
-    <hyperlink r:id="rId61" ref="B73"/>
-    <hyperlink r:id="rId62" ref="B74"/>
-    <hyperlink r:id="rId63" ref="B75"/>
-    <hyperlink r:id="rId64" ref="B76"/>
-    <hyperlink r:id="rId65" ref="B77"/>
-    <hyperlink r:id="rId66" ref="B80"/>
-    <hyperlink r:id="rId67" ref="B81"/>
-    <hyperlink r:id="rId68" ref="B82"/>
-    <hyperlink r:id="rId69" ref="B83"/>
-    <hyperlink r:id="rId70" ref="B84"/>
-    <hyperlink r:id="rId71" ref="B85"/>
-    <hyperlink r:id="rId72" ref="B86"/>
-    <hyperlink r:id="rId73" ref="B87"/>
-    <hyperlink r:id="rId74" ref="B88"/>
-    <hyperlink r:id="rId75" ref="B89"/>
-    <hyperlink r:id="rId76" ref="B90"/>
-    <hyperlink r:id="rId77" ref="B91"/>
-    <hyperlink r:id="rId78" ref="B92"/>
-    <hyperlink r:id="rId79" ref="B93"/>
-    <hyperlink r:id="rId80" ref="B94"/>
-    <hyperlink r:id="rId81" ref="B98"/>
-    <hyperlink r:id="rId82" ref="B99"/>
-    <hyperlink r:id="rId83" ref="B100"/>
-    <hyperlink r:id="rId84" ref="B101"/>
-    <hyperlink r:id="rId85" ref="B102"/>
-    <hyperlink r:id="rId86" ref="B105"/>
-    <hyperlink r:id="rId87" ref="B106"/>
-    <hyperlink r:id="rId88" ref="B107"/>
-    <hyperlink r:id="rId89" ref="B108"/>
-    <hyperlink r:id="rId90" ref="B109"/>
-    <hyperlink r:id="rId91" ref="B110"/>
-    <hyperlink r:id="rId92" ref="B111"/>
-    <hyperlink r:id="rId93" ref="B112"/>
-    <hyperlink r:id="rId94" ref="B113"/>
-    <hyperlink r:id="rId95" ref="B114"/>
-    <hyperlink r:id="rId96" ref="B115"/>
-    <hyperlink r:id="rId97" ref="B118"/>
-    <hyperlink r:id="rId98" ref="B119"/>
-    <hyperlink r:id="rId99" ref="B120"/>
-    <hyperlink r:id="rId100" ref="B121"/>
-    <hyperlink r:id="rId101" ref="B122"/>
-    <hyperlink r:id="rId102" ref="B123"/>
-    <hyperlink r:id="rId103" ref="B124"/>
-    <hyperlink r:id="rId104" ref="B128"/>
-    <hyperlink r:id="rId105" ref="B129"/>
-    <hyperlink r:id="rId106" ref="B130"/>
-    <hyperlink r:id="rId107" ref="B131"/>
-    <hyperlink r:id="rId108" ref="B132"/>
-    <hyperlink r:id="rId109" ref="B133"/>
-    <hyperlink r:id="rId110" ref="B134"/>
-    <hyperlink r:id="rId111" ref="B135"/>
-    <hyperlink r:id="rId112" ref="B136"/>
-    <hyperlink r:id="rId113" ref="B139"/>
-    <hyperlink r:id="rId114" ref="B140"/>
-    <hyperlink r:id="rId115" ref="B141"/>
-    <hyperlink r:id="rId116" ref="B142"/>
-    <hyperlink r:id="rId117" ref="B143"/>
-    <hyperlink r:id="rId118" ref="B144"/>
-    <hyperlink r:id="rId119" ref="B145"/>
-    <hyperlink r:id="rId120" ref="B148"/>
-    <hyperlink r:id="rId121" ref="B149"/>
-    <hyperlink r:id="rId122" ref="B150"/>
-    <hyperlink r:id="rId123" ref="B151"/>
-    <hyperlink r:id="rId124" ref="B158"/>
-    <hyperlink r:id="rId125" ref="B159"/>
-    <hyperlink r:id="rId126" ref="B160"/>
-    <hyperlink r:id="rId127" ref="B161"/>
-    <hyperlink r:id="rId128" ref="B162"/>
-    <hyperlink r:id="rId129" ref="B163"/>
-    <hyperlink r:id="rId130" ref="B164"/>
-    <hyperlink r:id="rId131" ref="B165"/>
-    <hyperlink r:id="rId132" ref="B168"/>
-    <hyperlink r:id="rId133" ref="B169"/>
-    <hyperlink r:id="rId134" ref="B170"/>
-    <hyperlink r:id="rId135" ref="B174"/>
-    <hyperlink r:id="rId136" ref="B175"/>
-    <hyperlink r:id="rId137" ref="B176"/>
-    <hyperlink r:id="rId138" ref="B177"/>
-    <hyperlink r:id="rId139" ref="B178"/>
-    <hyperlink r:id="rId140" ref="B179"/>
-    <hyperlink r:id="rId141" ref="B180"/>
-    <hyperlink r:id="rId142" ref="B181"/>
-    <hyperlink r:id="rId143" ref="B182"/>
-    <hyperlink r:id="rId144" ref="B185"/>
-    <hyperlink r:id="rId145" ref="B186"/>
-    <hyperlink r:id="rId146" ref="B187"/>
-    <hyperlink r:id="rId147" ref="B188"/>
-    <hyperlink r:id="rId148" ref="B189"/>
-    <hyperlink r:id="rId149" ref="B190"/>
-    <hyperlink r:id="rId150" ref="B191"/>
-    <hyperlink r:id="rId151" ref="B192"/>
-    <hyperlink r:id="rId152" ref="B196"/>
-    <hyperlink r:id="rId153" ref="B197"/>
-    <hyperlink r:id="rId154" ref="B198"/>
-    <hyperlink r:id="rId155" ref="B199"/>
-    <hyperlink r:id="rId156" ref="B200"/>
-    <hyperlink r:id="rId157" ref="B201"/>
-    <hyperlink r:id="rId158" ref="B202"/>
-    <hyperlink r:id="rId159" ref="B203"/>
-    <hyperlink r:id="rId160" ref="B204"/>
-    <hyperlink r:id="rId161" ref="B205"/>
-    <hyperlink r:id="rId162" ref="B206"/>
-    <hyperlink r:id="rId163" ref="B207"/>
-    <hyperlink r:id="rId164" ref="B208"/>
-    <hyperlink r:id="rId165" ref="B209"/>
-    <hyperlink r:id="rId166" ref="B210"/>
-    <hyperlink r:id="rId167" ref="B211"/>
-    <hyperlink r:id="rId168" ref="B214"/>
-    <hyperlink r:id="rId169" ref="B215"/>
-    <hyperlink r:id="rId170" ref="B216"/>
-    <hyperlink r:id="rId171" ref="B217"/>
-    <hyperlink r:id="rId172" ref="B218"/>
-    <hyperlink r:id="rId173" ref="B219"/>
-    <hyperlink r:id="rId174" ref="B220"/>
-    <hyperlink r:id="rId175" ref="B221"/>
-    <hyperlink r:id="rId176" ref="B222"/>
-    <hyperlink r:id="rId177" ref="B223"/>
-    <hyperlink r:id="rId178" ref="B224"/>
-    <hyperlink r:id="rId179" ref="B225"/>
-    <hyperlink r:id="rId180" ref="B226"/>
-    <hyperlink r:id="rId181" ref="B227"/>
-    <hyperlink r:id="rId182" ref="B228"/>
-    <hyperlink r:id="rId183" ref="B229"/>
-    <hyperlink r:id="rId184" ref="B230"/>
-    <hyperlink r:id="rId185" ref="B231"/>
-    <hyperlink r:id="rId186" ref="B234"/>
-    <hyperlink r:id="rId187" ref="B235"/>
-    <hyperlink r:id="rId188" ref="B236"/>
-    <hyperlink r:id="rId189" ref="B237"/>
-    <hyperlink r:id="rId190" ref="B238"/>
-    <hyperlink r:id="rId191" ref="B239"/>
-    <hyperlink r:id="rId192" ref="B240"/>
-    <hyperlink r:id="rId193" ref="B244"/>
-    <hyperlink r:id="rId194" ref="B245"/>
-    <hyperlink r:id="rId195" ref="B248"/>
-    <hyperlink r:id="rId196" ref="B249"/>
-    <hyperlink r:id="rId197" ref="B253"/>
-    <hyperlink r:id="rId198" ref="B254"/>
-    <hyperlink r:id="rId199" ref="B255"/>
-    <hyperlink r:id="rId200" ref="B256"/>
-    <hyperlink r:id="rId201" ref="B259"/>
-    <hyperlink r:id="rId202" ref="B260"/>
-    <hyperlink r:id="rId203" ref="B261"/>
-    <hyperlink r:id="rId204" ref="B262"/>
-    <hyperlink r:id="rId205" ref="B263"/>
-    <hyperlink r:id="rId206" ref="B264"/>
-    <hyperlink r:id="rId207" ref="B265"/>
-    <hyperlink r:id="rId208" ref="B266"/>
-    <hyperlink r:id="rId209" ref="B267"/>
-    <hyperlink r:id="rId210" ref="B270"/>
-    <hyperlink r:id="rId211" ref="B271"/>
-    <hyperlink r:id="rId212" ref="B272"/>
-    <hyperlink r:id="rId213" ref="B273"/>
-    <hyperlink r:id="rId214" ref="B274"/>
-    <hyperlink r:id="rId215" ref="B278"/>
-    <hyperlink r:id="rId216" ref="B279"/>
-    <hyperlink r:id="rId217" ref="B280"/>
-    <hyperlink r:id="rId218" ref="B281"/>
-    <hyperlink r:id="rId219" ref="B282"/>
-    <hyperlink r:id="rId220" ref="B285"/>
-    <hyperlink r:id="rId221" ref="B286"/>
-    <hyperlink r:id="rId222" ref="B287"/>
-    <hyperlink r:id="rId223" ref="B288"/>
-    <hyperlink r:id="rId224" ref="B292"/>
-    <hyperlink r:id="rId225" ref="B293"/>
-    <hyperlink r:id="rId226" ref="B294"/>
-    <hyperlink r:id="rId227" ref="B295"/>
-    <hyperlink r:id="rId228" ref="B296"/>
-    <hyperlink r:id="rId229" ref="B300"/>
-    <hyperlink r:id="rId230" ref="B301"/>
-    <hyperlink r:id="rId231" ref="B302"/>
-    <hyperlink r:id="rId232" ref="B303"/>
-    <hyperlink r:id="rId233" ref="B304"/>
-    <hyperlink r:id="rId234" ref="B305"/>
-    <hyperlink r:id="rId235" ref="B308"/>
-    <hyperlink r:id="rId236" ref="B309"/>
-    <hyperlink r:id="rId237" ref="B310"/>
-    <hyperlink r:id="rId238" ref="B311"/>
-    <hyperlink r:id="rId239" ref="B315"/>
-    <hyperlink r:id="rId240" ref="B316"/>
-    <hyperlink r:id="rId241" ref="C316"/>
-    <hyperlink r:id="rId242" ref="B317"/>
-    <hyperlink r:id="rId243" ref="B318"/>
-    <hyperlink r:id="rId244" ref="C319"/>
-    <hyperlink r:id="rId245" ref="B320"/>
-    <hyperlink r:id="rId246" ref="B323"/>
-    <hyperlink r:id="rId247" ref="B324"/>
-    <hyperlink r:id="rId248" ref="B325"/>
-    <hyperlink r:id="rId249" ref="B326"/>
-    <hyperlink r:id="rId250" ref="B327"/>
-    <hyperlink r:id="rId251" ref="B328"/>
-    <hyperlink r:id="rId252" ref="C328"/>
-    <hyperlink r:id="rId253" ref="B329"/>
-    <hyperlink r:id="rId254" ref="B333"/>
-    <hyperlink r:id="rId255" ref="B334"/>
-    <hyperlink r:id="rId256" ref="B335"/>
-    <hyperlink r:id="rId257" ref="B336"/>
-    <hyperlink r:id="rId258" ref="B337"/>
-    <hyperlink r:id="rId259" ref="B338"/>
-    <hyperlink r:id="rId260" ref="B339"/>
-    <hyperlink r:id="rId261" ref="B343"/>
-    <hyperlink r:id="rId262" ref="B344"/>
-    <hyperlink r:id="rId263" ref="B347"/>
-    <hyperlink r:id="rId264" ref="B348"/>
-    <hyperlink r:id="rId265" ref="B349"/>
-    <hyperlink r:id="rId266" ref="B350"/>
-    <hyperlink r:id="rId267" ref="B351"/>
-    <hyperlink r:id="rId268" ref="B352"/>
-    <hyperlink r:id="rId269" ref="B353"/>
-    <hyperlink r:id="rId270" ref="B354"/>
-    <hyperlink r:id="rId271" ref="B355"/>
-    <hyperlink r:id="rId272" ref="B356"/>
-    <hyperlink r:id="rId273" ref="B357"/>
-    <hyperlink r:id="rId274" ref="B358"/>
-    <hyperlink r:id="rId275" ref="B359"/>
-    <hyperlink r:id="rId276" ref="B360"/>
-    <hyperlink r:id="rId277" ref="B363"/>
-    <hyperlink r:id="rId278" ref="B367"/>
-    <hyperlink r:id="rId279" ref="B368"/>
-    <hyperlink r:id="rId280" ref="B369"/>
-    <hyperlink r:id="rId281" ref="B370"/>
-    <hyperlink r:id="rId282" ref="B371"/>
-    <hyperlink r:id="rId283" ref="B372"/>
-    <hyperlink r:id="rId284" ref="B373"/>
-    <hyperlink r:id="rId285" ref="B374"/>
-    <hyperlink r:id="rId286" ref="B375"/>
-    <hyperlink r:id="rId287" ref="B376"/>
-    <hyperlink r:id="rId288" ref="B379"/>
-    <hyperlink r:id="rId289" ref="B380"/>
-    <hyperlink r:id="rId290" ref="B381"/>
-    <hyperlink r:id="rId291" ref="B382"/>
-    <hyperlink r:id="rId292" ref="B383"/>
-    <hyperlink r:id="rId293" ref="B384"/>
-    <hyperlink r:id="rId294" ref="B385"/>
-    <hyperlink r:id="rId295" ref="B386"/>
-    <hyperlink r:id="rId296" ref="B387"/>
-    <hyperlink r:id="rId297" ref="B388"/>
-    <hyperlink r:id="rId298" ref="B389"/>
-    <hyperlink r:id="rId299" ref="B390"/>
-    <hyperlink r:id="rId300" ref="B391"/>
-    <hyperlink r:id="rId301" ref="B394"/>
-    <hyperlink r:id="rId302" ref="B395"/>
-    <hyperlink r:id="rId303" ref="B399"/>
-    <hyperlink r:id="rId304" ref="B400"/>
-    <hyperlink r:id="rId305" ref="B401"/>
-    <hyperlink r:id="rId306" ref="B402"/>
-    <hyperlink r:id="rId307" ref="B403"/>
-    <hyperlink r:id="rId308" ref="B404"/>
-    <hyperlink r:id="rId309" ref="B405"/>
-    <hyperlink r:id="rId310" ref="B406"/>
-    <hyperlink r:id="rId311" ref="B409"/>
-    <hyperlink r:id="rId312" ref="B410"/>
-    <hyperlink r:id="rId313" ref="B411"/>
-    <hyperlink r:id="rId314" ref="B412"/>
-    <hyperlink r:id="rId315" ref="B413"/>
-    <hyperlink r:id="rId316" ref="B414"/>
-    <hyperlink r:id="rId317" ref="B415"/>
-    <hyperlink r:id="rId318" ref="B416"/>
-    <hyperlink r:id="rId319" ref="B417"/>
-    <hyperlink r:id="rId320" ref="B421"/>
-    <hyperlink r:id="rId321" ref="B422"/>
-    <hyperlink r:id="rId322" ref="B423"/>
-    <hyperlink r:id="rId323" ref="B424"/>
-    <hyperlink r:id="rId324" ref="B427"/>
-    <hyperlink r:id="rId325" ref="B429"/>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B7" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B8" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B9" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B10" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B11" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="B12" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B13" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="B14" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="B15" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="B16" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="B17" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="B18" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="B21" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="B22" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="B23" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="B24" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="B25" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="B26" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="B27" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="B28" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="B29" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="B30" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="B31" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="B32" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="B33" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="B34" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="B35" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="B36" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="B37" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="B38" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="B39" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="B40" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="B41" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="B42" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="B43" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="B44" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="B45" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="B46" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="B49" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="B50" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="B51" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="B52" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="B53" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="B57" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="B58" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="B59" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="C59" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="B60" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="B63" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="B64" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="B65" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="B66" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="B67" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="B68" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="B69" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="B70" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="B71" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="B72" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="B73" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="B74" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="B75" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="B76" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="B77" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="B80" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="B81" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="B82" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="B83" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="B84" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="B85" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="B86" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="B87" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="B88" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="B89" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="B90" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="B91" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="B92" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="B93" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="B94" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="B98" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="B99" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="B100" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="B101" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="B102" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="B105" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="B106" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="B107" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="B108" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="B109" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="B110" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="B111" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="B112" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="B113" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="B114" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="B115" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="B118" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="B119" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="B120" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="B121" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="B122" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="B123" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="B124" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="B128" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="B129" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="B130" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="B131" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="B132" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="B133" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="B134" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="B135" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="B136" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="B139" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="B140" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="B141" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="B142" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="B143" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="B144" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="B145" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="B148" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="B149" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="B150" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="B151" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="B158" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="B159" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="B160" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="B161" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="B162" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="B163" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="B164" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="B165" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="B168" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="B169" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="B170" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="B174" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="B175" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="B176" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="B177" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="B178" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="B179" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="B180" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="B181" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="B182" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="B185" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="B186" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="B187" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="B188" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="B189" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="B190" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="B191" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="B192" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="B196" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="B197" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="B198" r:id="rId154" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="B199" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="B200" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="B201" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="B202" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="B203" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="B204" r:id="rId160" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="B205" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="B206" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
+    <hyperlink ref="B207" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="B208" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="B209" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="B210" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="B211" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="B214" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="B215" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="B216" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="B217" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="B218" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="B219" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
+    <hyperlink ref="B220" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
+    <hyperlink ref="B221" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
+    <hyperlink ref="B222" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
+    <hyperlink ref="B223" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
+    <hyperlink ref="B224" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
+    <hyperlink ref="B225" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
+    <hyperlink ref="B226" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
+    <hyperlink ref="B227" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
+    <hyperlink ref="B228" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
+    <hyperlink ref="B229" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
+    <hyperlink ref="B230" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
+    <hyperlink ref="B231" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
+    <hyperlink ref="B234" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
+    <hyperlink ref="B235" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
+    <hyperlink ref="B236" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
+    <hyperlink ref="B237" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
+    <hyperlink ref="B238" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
+    <hyperlink ref="B239" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
+    <hyperlink ref="B240" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
+    <hyperlink ref="B244" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
+    <hyperlink ref="B245" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
+    <hyperlink ref="B248" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
+    <hyperlink ref="B249" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
+    <hyperlink ref="B253" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
+    <hyperlink ref="B254" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
+    <hyperlink ref="B255" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
+    <hyperlink ref="B256" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
+    <hyperlink ref="B259" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
+    <hyperlink ref="B260" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
+    <hyperlink ref="B261" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
+    <hyperlink ref="B262" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
+    <hyperlink ref="B263" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
+    <hyperlink ref="B264" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
+    <hyperlink ref="B265" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
+    <hyperlink ref="B266" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
+    <hyperlink ref="B267" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
+    <hyperlink ref="B270" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
+    <hyperlink ref="B271" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
+    <hyperlink ref="B272" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
+    <hyperlink ref="B273" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
+    <hyperlink ref="B274" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
+    <hyperlink ref="B278" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
+    <hyperlink ref="B279" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
+    <hyperlink ref="B280" r:id="rId217" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
+    <hyperlink ref="B281" r:id="rId218" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
+    <hyperlink ref="B282" r:id="rId219" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
+    <hyperlink ref="B285" r:id="rId220" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
+    <hyperlink ref="B286" r:id="rId221" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
+    <hyperlink ref="B287" r:id="rId222" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
+    <hyperlink ref="B288" r:id="rId223" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
+    <hyperlink ref="B292" r:id="rId224" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
+    <hyperlink ref="B293" r:id="rId225" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
+    <hyperlink ref="B294" r:id="rId226" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
+    <hyperlink ref="B295" r:id="rId227" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
+    <hyperlink ref="B296" r:id="rId228" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
+    <hyperlink ref="B300" r:id="rId229" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
+    <hyperlink ref="B301" r:id="rId230" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
+    <hyperlink ref="B302" r:id="rId231" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
+    <hyperlink ref="B303" r:id="rId232" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
+    <hyperlink ref="B304" r:id="rId233" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
+    <hyperlink ref="B305" r:id="rId234" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
+    <hyperlink ref="B308" r:id="rId235" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
+    <hyperlink ref="B309" r:id="rId236" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
+    <hyperlink ref="B310" r:id="rId237" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
+    <hyperlink ref="B311" r:id="rId238" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
+    <hyperlink ref="B315" r:id="rId239" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
+    <hyperlink ref="B316" r:id="rId240" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
+    <hyperlink ref="C316" r:id="rId241" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
+    <hyperlink ref="B317" r:id="rId242" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
+    <hyperlink ref="B318" r:id="rId243" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
+    <hyperlink ref="C319" r:id="rId244" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
+    <hyperlink ref="B320" r:id="rId245" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
+    <hyperlink ref="B323" r:id="rId246" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
+    <hyperlink ref="B324" r:id="rId247" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
+    <hyperlink ref="B325" r:id="rId248" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
+    <hyperlink ref="B326" r:id="rId249" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
+    <hyperlink ref="B327" r:id="rId250" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
+    <hyperlink ref="B328" r:id="rId251" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
+    <hyperlink ref="C328" r:id="rId252" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
+    <hyperlink ref="B329" r:id="rId253" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
+    <hyperlink ref="B333" r:id="rId254" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
+    <hyperlink ref="B334" r:id="rId255" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
+    <hyperlink ref="B335" r:id="rId256" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
+    <hyperlink ref="B336" r:id="rId257" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
+    <hyperlink ref="B337" r:id="rId258" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
+    <hyperlink ref="B338" r:id="rId259" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
+    <hyperlink ref="B339" r:id="rId260" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
+    <hyperlink ref="B343" r:id="rId261" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
+    <hyperlink ref="B344" r:id="rId262" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
+    <hyperlink ref="B347" r:id="rId263" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
+    <hyperlink ref="B348" r:id="rId264" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
+    <hyperlink ref="B349" r:id="rId265" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
+    <hyperlink ref="B350" r:id="rId266" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
+    <hyperlink ref="B351" r:id="rId267" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
+    <hyperlink ref="B352" r:id="rId268" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
+    <hyperlink ref="B353" r:id="rId269" xr:uid="{00000000-0004-0000-0000-00000C010000}"/>
+    <hyperlink ref="B354" r:id="rId270" xr:uid="{00000000-0004-0000-0000-00000D010000}"/>
+    <hyperlink ref="B355" r:id="rId271" xr:uid="{00000000-0004-0000-0000-00000E010000}"/>
+    <hyperlink ref="B356" r:id="rId272" xr:uid="{00000000-0004-0000-0000-00000F010000}"/>
+    <hyperlink ref="B357" r:id="rId273" xr:uid="{00000000-0004-0000-0000-000010010000}"/>
+    <hyperlink ref="B358" r:id="rId274" xr:uid="{00000000-0004-0000-0000-000011010000}"/>
+    <hyperlink ref="B359" r:id="rId275" xr:uid="{00000000-0004-0000-0000-000012010000}"/>
+    <hyperlink ref="B360" r:id="rId276" xr:uid="{00000000-0004-0000-0000-000013010000}"/>
+    <hyperlink ref="B363" r:id="rId277" xr:uid="{00000000-0004-0000-0000-000014010000}"/>
+    <hyperlink ref="B367" r:id="rId278" xr:uid="{00000000-0004-0000-0000-000015010000}"/>
+    <hyperlink ref="B368" r:id="rId279" xr:uid="{00000000-0004-0000-0000-000016010000}"/>
+    <hyperlink ref="B369" r:id="rId280" xr:uid="{00000000-0004-0000-0000-000017010000}"/>
+    <hyperlink ref="B370" r:id="rId281" xr:uid="{00000000-0004-0000-0000-000018010000}"/>
+    <hyperlink ref="B371" r:id="rId282" xr:uid="{00000000-0004-0000-0000-000019010000}"/>
+    <hyperlink ref="B372" r:id="rId283" xr:uid="{00000000-0004-0000-0000-00001A010000}"/>
+    <hyperlink ref="B373" r:id="rId284" xr:uid="{00000000-0004-0000-0000-00001B010000}"/>
+    <hyperlink ref="B374" r:id="rId285" xr:uid="{00000000-0004-0000-0000-00001C010000}"/>
+    <hyperlink ref="B375" r:id="rId286" xr:uid="{00000000-0004-0000-0000-00001D010000}"/>
+    <hyperlink ref="B376" r:id="rId287" xr:uid="{00000000-0004-0000-0000-00001E010000}"/>
+    <hyperlink ref="B379" r:id="rId288" xr:uid="{00000000-0004-0000-0000-00001F010000}"/>
+    <hyperlink ref="B380" r:id="rId289" xr:uid="{00000000-0004-0000-0000-000020010000}"/>
+    <hyperlink ref="B381" r:id="rId290" xr:uid="{00000000-0004-0000-0000-000021010000}"/>
+    <hyperlink ref="B382" r:id="rId291" xr:uid="{00000000-0004-0000-0000-000022010000}"/>
+    <hyperlink ref="B383" r:id="rId292" xr:uid="{00000000-0004-0000-0000-000023010000}"/>
+    <hyperlink ref="B384" r:id="rId293" xr:uid="{00000000-0004-0000-0000-000024010000}"/>
+    <hyperlink ref="B385" r:id="rId294" xr:uid="{00000000-0004-0000-0000-000025010000}"/>
+    <hyperlink ref="B386" r:id="rId295" xr:uid="{00000000-0004-0000-0000-000026010000}"/>
+    <hyperlink ref="B387" r:id="rId296" xr:uid="{00000000-0004-0000-0000-000027010000}"/>
+    <hyperlink ref="B388" r:id="rId297" xr:uid="{00000000-0004-0000-0000-000028010000}"/>
+    <hyperlink ref="B389" r:id="rId298" xr:uid="{00000000-0004-0000-0000-000029010000}"/>
+    <hyperlink ref="B390" r:id="rId299" xr:uid="{00000000-0004-0000-0000-00002A010000}"/>
+    <hyperlink ref="B391" r:id="rId300" xr:uid="{00000000-0004-0000-0000-00002B010000}"/>
+    <hyperlink ref="B394" r:id="rId301" xr:uid="{00000000-0004-0000-0000-00002C010000}"/>
+    <hyperlink ref="B395" r:id="rId302" xr:uid="{00000000-0004-0000-0000-00002D010000}"/>
+    <hyperlink ref="B399" r:id="rId303" xr:uid="{00000000-0004-0000-0000-00002E010000}"/>
+    <hyperlink ref="B400" r:id="rId304" xr:uid="{00000000-0004-0000-0000-00002F010000}"/>
+    <hyperlink ref="B401" r:id="rId305" xr:uid="{00000000-0004-0000-0000-000030010000}"/>
+    <hyperlink ref="B402" r:id="rId306" xr:uid="{00000000-0004-0000-0000-000031010000}"/>
+    <hyperlink ref="B403" r:id="rId307" xr:uid="{00000000-0004-0000-0000-000032010000}"/>
+    <hyperlink ref="B404" r:id="rId308" xr:uid="{00000000-0004-0000-0000-000033010000}"/>
+    <hyperlink ref="B405" r:id="rId309" xr:uid="{00000000-0004-0000-0000-000034010000}"/>
+    <hyperlink ref="B406" r:id="rId310" xr:uid="{00000000-0004-0000-0000-000035010000}"/>
+    <hyperlink ref="B409" r:id="rId311" xr:uid="{00000000-0004-0000-0000-000036010000}"/>
+    <hyperlink ref="B410" r:id="rId312" xr:uid="{00000000-0004-0000-0000-000037010000}"/>
+    <hyperlink ref="B411" r:id="rId313" xr:uid="{00000000-0004-0000-0000-000038010000}"/>
+    <hyperlink ref="B412" r:id="rId314" xr:uid="{00000000-0004-0000-0000-000039010000}"/>
+    <hyperlink ref="B413" r:id="rId315" xr:uid="{00000000-0004-0000-0000-00003A010000}"/>
+    <hyperlink ref="B414" r:id="rId316" xr:uid="{00000000-0004-0000-0000-00003B010000}"/>
+    <hyperlink ref="B415" r:id="rId317" xr:uid="{00000000-0004-0000-0000-00003C010000}"/>
+    <hyperlink ref="B416" r:id="rId318" xr:uid="{00000000-0004-0000-0000-00003D010000}"/>
+    <hyperlink ref="B417" r:id="rId319" xr:uid="{00000000-0004-0000-0000-00003E010000}"/>
+    <hyperlink ref="B421" r:id="rId320" xr:uid="{00000000-0004-0000-0000-00003F010000}"/>
+    <hyperlink ref="B422" r:id="rId321" xr:uid="{00000000-0004-0000-0000-000040010000}"/>
+    <hyperlink ref="B423" r:id="rId322" xr:uid="{00000000-0004-0000-0000-000041010000}"/>
+    <hyperlink ref="B424" r:id="rId323" xr:uid="{00000000-0004-0000-0000-000042010000}"/>
+    <hyperlink ref="B427" r:id="rId324" xr:uid="{00000000-0004-0000-0000-000043010000}"/>
+    <hyperlink ref="B429" r:id="rId325" xr:uid="{00000000-0004-0000-0000-000044010000}"/>
   </hyperlinks>
-  <drawing r:id="rId326"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>